--- a/static/bs/Станции.xlsx
+++ b/static/bs/Станции.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tminn\Desktop\python_3.12\gazPromTrans\static\bs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tminn\Desktop\python_3.12\GPT_ConnecT\static\bs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C143BF-EC70-44FE-8C60-70EE8990E55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FBE92E-794C-4B34-B6D6-AB0CD356BE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1455" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Мнемокод</t>
   </si>
@@ -48,30 +48,18 @@
     <t>Филиал</t>
   </si>
   <si>
-    <t>rip30</t>
-  </si>
-  <si>
     <t>sern30</t>
   </si>
   <si>
     <t>Серная</t>
   </si>
   <si>
-    <t>РИП</t>
-  </si>
-  <si>
-    <t>Твёрдая сера</t>
-  </si>
-  <si>
     <t>Наливная</t>
   </si>
   <si>
     <t>hardser30</t>
   </si>
   <si>
-    <t>liquid30</t>
-  </si>
-  <si>
     <t>sern86</t>
   </si>
   <si>
@@ -90,20 +78,56 @@
     <t>РИП-3</t>
   </si>
   <si>
-    <t>Твёрдая сера-6</t>
-  </si>
-  <si>
     <t>Наливная-7</t>
+  </si>
+  <si>
+    <t>Пионерная</t>
+  </si>
+  <si>
+    <t>pioner30</t>
+  </si>
+  <si>
+    <t>liq_ser30</t>
+  </si>
+  <si>
+    <t>bulk30</t>
+  </si>
+  <si>
+    <t>РИП Жидкая сера</t>
+  </si>
+  <si>
+    <t>rip_l30</t>
+  </si>
+  <si>
+    <t>Твердая сера-2</t>
+  </si>
+  <si>
+    <t>2hardser30</t>
+  </si>
+  <si>
+    <t>Твердая сера-6</t>
+  </si>
+  <si>
+    <t>Твердая сера</t>
+  </si>
+  <si>
+    <t>Жидкая сера</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="19.1328125" customWidth="1"/>
-    <col min="3" max="3" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,95 +459,129 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>